--- a/Documentación/Requerimientos.xlsx
+++ b/Documentación/Requerimientos.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER-01\Documents\POO Verano\ProyectoFinal\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyecto Juego\ProyectoPOO\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Requerimientos de funcionalidad</t>
   </si>
@@ -62,13 +62,19 @@
     <t>La aplicación permitirá escuchar un sonido para los distintos eventos</t>
   </si>
   <si>
-    <t xml:space="preserve">La aplicación permitirá </t>
+    <t>La aplicación permitira fijar un camino habilitado para el jugador</t>
+  </si>
+  <si>
+    <t>La aplicación podría permitir mostrar un ranking con todos los puntajes</t>
+  </si>
+  <si>
+    <t>La aplicaicon permitira habilitar un punto de llegada para el jugador</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -380,16 +386,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D9"/>
+  <dimension ref="B2:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="72.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.85546875" customWidth="1"/>
     <col min="4" max="4" width="46.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -419,6 +425,9 @@
       <c r="B4" t="s">
         <v>1</v>
       </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
@@ -446,6 +455,11 @@
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Documentación/Requerimientos.xlsx
+++ b/Documentación/Requerimientos.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyecto Juego\ProyectoPOO\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,58 +24,169 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>Requerimientos de funcionalidad</t>
-  </si>
-  <si>
-    <t>La aplicación permitirá contar con 3 personajes, un jugador y dos enemigos</t>
-  </si>
-  <si>
-    <t>La aplicación permitirá que el jugador pierda si pisa las áreas verdes</t>
-  </si>
-  <si>
-    <t>La aplicación permitirá contar con 3 mapas</t>
-  </si>
-  <si>
-    <t>Requerimientos deseados</t>
-  </si>
-  <si>
-    <t>La aplicación podría permitir mostrar el puntaje final al acabar</t>
-  </si>
-  <si>
-    <t>Excepciones</t>
-  </si>
-  <si>
-    <t>Fijar una cantidad mínima y máxima de nickname</t>
-  </si>
-  <si>
-    <t>Presionar "Iniciar" antes de haber elegido un mapa</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="38">
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Función comercial/categoría</t>
+  </si>
+  <si>
+    <t>Requerimiento</t>
+  </si>
+  <si>
+    <t>Prioridad</t>
+  </si>
+  <si>
+    <t>Funcional</t>
   </si>
   <si>
     <t>La aplicación permitirá que el personaje se desplaze con las teclas direccionales</t>
   </si>
   <si>
-    <t>La aplicación permitirá que el jugador ingrese su nickname</t>
-  </si>
-  <si>
-    <t>La aplicación permitirá escuchar un sonido para los distintos eventos</t>
-  </si>
-  <si>
-    <t>La aplicación permitira fijar un camino habilitado para el jugador</t>
-  </si>
-  <si>
-    <t>La aplicación podría permitir mostrar un ranking con todos los puntajes</t>
-  </si>
-  <si>
-    <t>La aplicaicon permitira habilitar un punto de llegada para el jugador</t>
+    <t>La aplicación contará con 3 personajes, un jugador y tres enemigos</t>
+  </si>
+  <si>
+    <t>La aplicación considera que el jugador pierde al pisar las áreas verdes</t>
+  </si>
+  <si>
+    <t>La aplicación debe contener 1 menú principal, donde aparezca el logo del juego y el botón comenzar</t>
+  </si>
+  <si>
+    <t>La aplicación debe de tener un menú secundario donde el usuario puede escoger el mapa donde desea jugar</t>
+  </si>
+  <si>
+    <t>La aplicación contendrá 3 mapas diferentes</t>
+  </si>
+  <si>
+    <t>Deseable</t>
+  </si>
+  <si>
+    <t>Esencial</t>
+  </si>
+  <si>
+    <t>Núcleo</t>
+  </si>
+  <si>
+    <t>La aplicación debe de contar con una vista en la que muestra las instrucciones del juego</t>
+  </si>
+  <si>
+    <t>La aplicación mostrará una pantalla con mensaje de "Ganaste" o "Perdiste" según la situación</t>
+  </si>
+  <si>
+    <t>La aplicación podría soportar dos jugadores en simultáneo</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La aplicación podría capturar una excepción cuando el </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>nickname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> del jugador no se encuentre dentro del intervalo indicado [3-8] caracteres</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La aplicación puede manejar una excepción cuando el </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">nickname </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>solo incluye números</t>
+    </r>
+  </si>
+  <si>
+    <t>Estético</t>
+  </si>
+  <si>
+    <t>Amigable al usuario</t>
+  </si>
+  <si>
+    <t>Personalizable</t>
+  </si>
+  <si>
+    <t>Escalable en dificultad</t>
+  </si>
+  <si>
+    <t>Multijugador</t>
+  </si>
+  <si>
+    <t>Captura de excepciones</t>
+  </si>
+  <si>
+    <t>Competitividad</t>
+  </si>
+  <si>
+    <t>hecho</t>
+  </si>
+  <si>
+    <t>La aplicación muestra mensajes cuando el personaje colisiona con los enemigos</t>
+  </si>
+  <si>
+    <t>La aplicación incluirá recompensas en el mapa que le permitan al personaje incrementar su vida además le otorga puntaje adicional</t>
+  </si>
+  <si>
+    <t>La aplicación permitirá registrar un nickname luego de presionar el boton comenzar</t>
+  </si>
+  <si>
+    <t>La aplicación mostrará un puntaje inicial, el cual se va incrementando durante el transcurso del juego</t>
+  </si>
+  <si>
+    <t>Cada vez que el personaje sea atrapado le quitarán vida y puntaje</t>
+  </si>
+  <si>
+    <t>La aplicación mostrará imágenes pixeleadas para el personaje,enemigos y recompensas</t>
+  </si>
+  <si>
+    <t>La aplicación otorgará al personaje 5 vidas al inicio con la posibilidad de incrementarlas durante el juego</t>
+  </si>
+  <si>
+    <t>La aplicación otorgará dos opciones de ganar, llegando al final del laberinto o llegar a un puntaje establecido</t>
+  </si>
+  <si>
+    <t>Los enemigos tendrán movimiento sin resctricciones para atrapar al personaje</t>
+  </si>
+  <si>
+    <t>La aplicación contará con sonidos para cada evento desencadenado durante el juego</t>
+  </si>
+  <si>
+    <t>La aplicación mostrará mensajes en cada evento que se produzca en el juego</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,16 +194,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -100,12 +237,209 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,83 +720,403 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D10"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="72.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.85546875" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="127.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:6" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="D11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="F14" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
+      <c r="F18" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentación/Requerimientos.xlsx
+++ b/Documentación/Requerimientos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\Proyecto_Videojuego\ProyectoPOO\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="38">
   <si>
     <t>Tipo</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>La aplicación permitirá que el personaje se desplaze con las teclas direccionales</t>
-  </si>
-  <si>
-    <t>La aplicación contará con 3 personajes, un jugador y tres enemigos</t>
   </si>
   <si>
     <t>La aplicación considera que el jugador pierde al pisar las áreas verdes</t>
@@ -101,30 +98,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">La aplicación puede manejar una excepción cuando el </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">nickname </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>solo incluye números</t>
-    </r>
-  </si>
-  <si>
     <t>Estético</t>
   </si>
   <si>
@@ -180,6 +153,12 @@
   </si>
   <si>
     <t>La aplicación mostrará mensajes en cada evento que se produzca en el juego</t>
+  </si>
+  <si>
+    <t>La aplicación contará con  4 enemigos y 1 personaje</t>
+  </si>
+  <si>
+    <t>La aplicación proveerá un mapa por defecto para jugar</t>
   </si>
 </sst>
 </file>
@@ -720,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,16 +734,16 @@
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -772,16 +751,16 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -789,13 +768,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -803,13 +785,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -817,13 +799,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -831,16 +813,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -848,16 +830,16 @@
         <v>4</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -865,16 +847,16 @@
         <v>4</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -882,16 +864,16 @@
         <v>4</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -899,16 +881,16 @@
         <v>4</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -916,16 +898,16 @@
         <v>4</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -933,16 +915,16 @@
         <v>4</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -950,13 +932,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" s="4"/>
     </row>
@@ -965,63 +947,65 @@
         <v>4</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="D18" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>11</v>
+      <c r="B19" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1029,16 +1013,16 @@
         <v>4</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1046,33 +1030,33 @@
         <v>4</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1080,16 +1064,16 @@
         <v>4</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1097,7 +1081,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>37</v>
@@ -1106,14 +1090,11 @@
         <v>11</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F26" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentación/Requerimientos.xlsx
+++ b/Documentación/Requerimientos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="39">
   <si>
     <t>Tipo</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>La aplicación proveerá un mapa por defecto para jugar</t>
+  </si>
+  <si>
+    <t>La aplicación contará con tres niveles: fácil, medio y difícil</t>
   </si>
 </sst>
 </file>
@@ -702,7 +705,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,6 +796,9 @@
       <c r="D6" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="F6" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="1:6" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -807,6 +813,9 @@
       <c r="D7" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="F7" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -1093,8 +1102,22 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F25" s="4"/>
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
